--- a/Project_Management/Master_TaskList.xlsx
+++ b/Project_Management/Master_TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/882d96ecae48bf67/Documents/GitHub/Musa_801_Watauga/Project_Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{B7F9FCD8-7460-4968-8C0C-D038E2A95FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2624431-70DB-4793-98CD-1A566C4862D8}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{B7F9FCD8-7460-4968-8C0C-D038E2A95FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CC8FF97-51C6-48C9-8437-EF8AD876DA61}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{8C268FC9-19D0-4C0C-87A3-F7021FE9D936}"/>
   </bookViews>
@@ -35,6 +35,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -511,15 +533,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,25 +547,103 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,78 +656,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,6 +675,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,92 +991,92 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>45320</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>45320</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1067,7 +1094,7 @@
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1085,7 +1112,7 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1103,7 +1130,7 @@
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1121,7 +1148,7 @@
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1139,7 +1166,7 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1157,7 +1184,7 @@
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1175,7 +1202,7 @@
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1193,7 +1220,7 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1211,7 +1238,7 @@
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1229,7 +1256,7 @@
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1247,7 +1274,7 @@
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1262,28 +1289,28 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <v>45335</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1295,13 +1322,13 @@
       <c r="E23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1319,7 +1346,7 @@
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1337,7 +1364,7 @@
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1355,13 +1382,13 @@
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1371,16 +1398,16 @@
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="4">
         <v>45334</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="6"/>
@@ -1389,7 +1416,7 @@
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1398,7 +1425,7 @@
       <c r="D29" s="4">
         <v>45334</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="6"/>
@@ -1407,7 +1434,7 @@
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1416,7 +1443,7 @@
       <c r="D30" s="4">
         <v>45320</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="6"/>
@@ -1425,7 +1452,7 @@
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1443,7 +1470,7 @@
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1459,13 +1486,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1475,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89AB342-0BF2-4077-89D4-4B91F4A154D1}">
   <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,336 +1523,356 @@
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="34"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="A10" t="str" cm="1">
+        <f t="array" ref="A10:F10">'Master List'!A8:F8</f>
+        <v xml:space="preserve">Kickoff &amp; Meeting Minutes </v>
+      </c>
+      <c r="B10" t="str">
+        <v>Phase 1: Project Setup and Qualitative Research</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Team</v>
+      </c>
+      <c r="D10">
         <v>45320</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14">
-        <v>45320</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45320</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
-        <v>45320</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
-        <v>45334</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4">
-        <v>45334</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="4">
-        <v>45334</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4">
-        <v>45334</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4">
-        <v>45334</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4">
-        <v>45334</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
-        <v>45334</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4">
-        <v>45320</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="4">
-        <v>45320</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
+      <c r="E10" t="str">
+        <v>Complete</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="11">
+        <v>45320</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="11">
+        <v>45320</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45320</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45320</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45334</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45334</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45334</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45334</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45334</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45334</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45334</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45334</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45320</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45320</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A5:B7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1847,14 +1894,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -1873,72 +1920,72 @@
       <c r="B6" s="46"/>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>45335</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>45321</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1947,14 +1994,14 @@
       <c r="D11" s="4">
         <v>45334</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1963,14 +2010,14 @@
       <c r="D12" s="4">
         <v>45320</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1979,30 +2026,30 @@
       <c r="D13" s="4">
         <v>45334</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="4">
         <v>45334</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2011,14 +2058,14 @@
       <c r="D15" s="4">
         <v>45334</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2027,14 +2074,14 @@
       <c r="D16" s="4">
         <v>45334</v>
       </c>
-      <c r="E16" s="23"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2043,14 +2090,14 @@
       <c r="D17" s="4">
         <v>45334</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2059,14 +2106,14 @@
       <c r="D18" s="4">
         <v>45334</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2075,14 +2122,14 @@
       <c r="D19" s="4">
         <v>45320</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2100,7 +2147,7 @@
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2118,7 +2165,7 @@
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2136,7 +2183,7 @@
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2160,82 +2207,82 @@
     <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="48"/>
     </row>
     <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
     </row>
     <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="11">
         <v>45335</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="21"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="11">
         <v>45320</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2244,14 +2291,14 @@
       <c r="D39" s="4">
         <v>45334</v>
       </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2260,14 +2307,14 @@
       <c r="D40" s="4">
         <v>45320</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2276,30 +2323,30 @@
       <c r="D41" s="4">
         <v>45334</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="4">
         <v>45334</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2308,14 +2355,14 @@
       <c r="D43" s="4">
         <v>45334</v>
       </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2324,14 +2371,14 @@
       <c r="D44" s="4">
         <v>45334</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2340,14 +2387,14 @@
       <c r="D45" s="4">
         <v>45334</v>
       </c>
-      <c r="E45" s="23"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2356,14 +2403,14 @@
       <c r="D46" s="4">
         <v>45334</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2372,11 +2419,17 @@
       <c r="D47" s="4">
         <v>45320</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A4:B6"/>
@@ -2386,12 +2439,6 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project_Management/Master_TaskList.xlsx
+++ b/Project_Management/Master_TaskList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/882d96ecae48bf67/Documents/GitHub/Musa_801_Watauga/Project_Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{B7F9FCD8-7460-4968-8C0C-D038E2A95FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DBEA261-548B-4238-82FB-10033603DA41}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{B7F9FCD8-7460-4968-8C0C-D038E2A95FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48FFC9F2-1F26-4695-A936-7E6D0202632E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8C268FC9-19D0-4C0C-87A3-F7021FE9D936}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8C268FC9-19D0-4C0C-87A3-F7021FE9D936}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t>Master Project Task List</t>
   </si>
@@ -184,6 +184,9 @@
   <si>
     <t>Weeks 3 -6
 02/06 - 2/20</t>
+  </si>
+  <si>
+    <t>Research &amp; Summary: "Workforce" Housing Programs &amp; surrounding context</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,101 +559,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -687,9 +620,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -720,24 +650,80 @@
     <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,25 +1046,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787ECB8D-8165-4A52-8BED-4C7B932AEF48}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="53" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="53" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="59.44140625" customWidth="1"/>
+    <col min="1" max="1" width="89.88671875" customWidth="1"/>
+    <col min="2" max="6" width="59.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23"/>
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -1089,479 +1076,479 @@
       <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="35">
         <v>45320</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="36" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="35">
         <v>45320</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="36" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="40">
         <v>45320</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="40">
         <v>45320</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="40">
         <v>45320</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="40">
         <v>45320</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="40">
         <v>45320</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="40">
         <v>45320</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="40">
         <v>45320</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="40">
         <v>45322</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E18" s="68" t="s">
+      <c r="D18" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E19" s="68" t="s">
+      <c r="D19" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E20" s="68" t="s">
+      <c r="D20" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E20" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E21" s="68" t="s">
+      <c r="D21" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E21" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="72">
-        <v>45334</v>
-      </c>
-      <c r="E22" s="68" t="s">
+      <c r="D22" s="47">
+        <v>45334</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E23" s="68" t="s">
+      <c r="D23" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E24" s="68" t="s">
+      <c r="D24" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E25" s="68" t="s">
+      <c r="D25" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E25" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E26" s="68" t="s">
+      <c r="D26" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E26" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E27" s="68" t="s">
+      <c r="D27" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E27" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E28" s="68" t="s">
+      <c r="D28" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E28" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E29" s="68" t="s">
+      <c r="D29" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E29" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="69">
-        <v>45334</v>
-      </c>
-      <c r="E30" s="68" t="s">
+      <c r="D30" s="44">
+        <v>45334</v>
+      </c>
+      <c r="E30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="77">
-        <v>45334</v>
-      </c>
-      <c r="E31" s="76" t="s">
+      <c r="D31" s="52">
+        <v>45334</v>
+      </c>
+      <c r="E31" s="51" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="77">
-        <v>45334</v>
-      </c>
-      <c r="E32" s="76" t="s">
+      <c r="D32" s="52">
+        <v>45334</v>
+      </c>
+      <c r="E32" s="51" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="5"/>
@@ -1589,728 +1576,722 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89AB342-0BF2-4077-89D4-4B91F4A154D1}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" customWidth="1"/>
+    <col min="1" max="1" width="87.5546875" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="20" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="42"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="42"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="70"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="41"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="str">
+      <c r="A10" s="24" t="str">
         <f>'Master List'!A8</f>
         <v xml:space="preserve">Kickoff &amp; Meeting Minutes </v>
       </c>
-      <c r="B10" s="48" t="str">
+      <c r="B10" s="24" t="str">
         <f>'Master List'!B8</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C10" s="44" t="str">
+      <c r="C10" s="21" t="str">
         <f>'Master List'!C8</f>
         <v>Team</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="29">
         <f>'Master List'!D8</f>
         <v>45320</v>
       </c>
-      <c r="E10" s="44" t="str">
+      <c r="E10" s="21" t="str">
         <f>'Master List'!E8</f>
         <v>Complete</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="24">
         <f>'Master List'!F8</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="str">
+      <c r="A11" s="24" t="str">
         <f>'Master List'!A9</f>
         <v>Project Management Plan</v>
       </c>
-      <c r="B11" s="48" t="str">
+      <c r="B11" s="24" t="str">
         <f>'Master List'!B9</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C11" s="44" t="str">
+      <c r="C11" s="21" t="str">
         <f>'Master List'!C9</f>
         <v>Jarred &amp; Kathleen</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="29">
         <f>'Master List'!D9</f>
         <v>45320</v>
       </c>
-      <c r="E11" s="44" t="str">
+      <c r="E11" s="21" t="str">
         <f>'Master List'!E9</f>
         <v>Complete</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="24">
         <f>'Master List'!F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="str">
+      <c r="A12" s="24" t="str">
         <f>'Master List'!A10</f>
         <v>Project Schedule: Gant Chart</v>
       </c>
-      <c r="B12" s="48" t="str">
+      <c r="B12" s="24" t="str">
         <f>'Master List'!B10</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C12" s="44" t="str">
+      <c r="C12" s="21" t="str">
         <f>'Master List'!C10</f>
         <v>Kathleen</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="29">
         <f>'Master List'!D10</f>
         <v>45320</v>
       </c>
-      <c r="E12" s="44" t="str">
+      <c r="E12" s="21" t="str">
         <f>'Master List'!E10</f>
         <v>Complete</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="24">
         <f>'Master List'!F10</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="str">
+      <c r="A13" s="24" t="str">
         <f>'Master List'!A11</f>
         <v>Project Setup: Github Repo</v>
       </c>
-      <c r="B13" s="48" t="str">
+      <c r="B13" s="24" t="str">
         <f>'Master List'!B11</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C13" s="44" t="str">
+      <c r="C13" s="21" t="str">
         <f>'Master List'!C11</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="29">
         <f>'Master List'!D11</f>
         <v>45320</v>
       </c>
-      <c r="E13" s="44" t="str">
+      <c r="E13" s="21" t="str">
         <f>'Master List'!E11</f>
         <v>Complete</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="24">
         <f>'Master List'!F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="str">
+      <c r="A14" s="24" t="str">
         <f>'Master List'!A12</f>
         <v>Update Readme with progress (week1-3)</v>
       </c>
-      <c r="B14" s="48" t="str">
+      <c r="B14" s="24" t="str">
         <f>'Master List'!B12</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C14" s="44" t="str">
+      <c r="C14" s="21" t="str">
         <f>'Master List'!C12</f>
         <v>Kathleen</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="29">
         <f>'Master List'!D12</f>
         <v>45320</v>
       </c>
-      <c r="E14" s="44" t="str">
+      <c r="E14" s="21" t="str">
         <f>'Master List'!E12</f>
         <v>Complete</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="24">
         <f>'Master List'!F12</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="str">
+      <c r="A15" s="24" t="str">
         <f>'Master List'!A13</f>
         <v>Update Presentation Slides (week1-3)</v>
       </c>
-      <c r="B15" s="48" t="str">
+      <c r="B15" s="24" t="str">
         <f>'Master List'!B13</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C15" s="44" t="str">
+      <c r="C15" s="21" t="str">
         <f>'Master List'!C13</f>
         <v>Jingyi &amp; Yinan</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="29">
         <f>'Master List'!D13</f>
         <v>45320</v>
       </c>
-      <c r="E15" s="44" t="str">
+      <c r="E15" s="21" t="str">
         <f>'Master List'!E13</f>
         <v>Complete</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="24">
         <f>'Master List'!F13</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="str">
+      <c r="A16" s="24" t="str">
         <f>'Master List'!A14</f>
         <v>Update Readme with progress (week3-5)</v>
       </c>
-      <c r="B16" s="48" t="str">
+      <c r="B16" s="24" t="str">
         <f>'Master List'!B14</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C16" s="44" t="str">
+      <c r="C16" s="21" t="str">
         <f>'Master List'!C14</f>
         <v>Kathleen</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="29">
         <f>'Master List'!D14</f>
         <v>45320</v>
       </c>
-      <c r="E16" s="44" t="str">
+      <c r="E16" s="21" t="str">
         <f>'Master List'!E14</f>
         <v>Complete</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="24">
         <f>'Master List'!F14</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="str">
+      <c r="A17" s="24" t="str">
         <f>'Master List'!A15</f>
         <v>Update Readme with progress</v>
       </c>
-      <c r="B17" s="48" t="str">
+      <c r="B17" s="24" t="str">
         <f>'Master List'!B15</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C17" s="44" t="str">
+      <c r="C17" s="21" t="str">
         <f>'Master List'!C15</f>
         <v>Kathleen</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="29">
         <f>'Master List'!D15</f>
         <v>45320</v>
       </c>
-      <c r="E17" s="44" t="str">
+      <c r="E17" s="21" t="str">
         <f>'Master List'!E15</f>
         <v>Complete</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="24">
         <f>'Master List'!F15</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="str">
+      <c r="A18" s="24" t="str">
         <f>'Master List'!A16</f>
         <v>Update Presentation Slides (week3-5)</v>
       </c>
-      <c r="B18" s="48" t="str">
+      <c r="B18" s="24" t="str">
         <f>'Master List'!B16</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C18" s="44" t="str">
+      <c r="C18" s="21" t="str">
         <f>'Master List'!C16</f>
         <v>Jingyi &amp; Yinan</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="29">
         <f>'Master List'!D16</f>
         <v>45320</v>
       </c>
-      <c r="E18" s="44" t="str">
+      <c r="E18" s="21" t="str">
         <f>'Master List'!E16</f>
         <v>Complete</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="24">
         <f>'Master List'!F16</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="str">
+      <c r="A19" s="24" t="str">
         <f>'Master List'!A17</f>
         <v xml:space="preserve">Chris Quattro Meeting &amp; Minutes </v>
       </c>
-      <c r="B19" s="48" t="str">
+      <c r="B19" s="24" t="str">
         <f>'Master List'!B17</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C19" s="44" t="str">
+      <c r="C19" s="21" t="str">
         <f>'Master List'!C17</f>
         <v>Team</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="29">
         <f>'Master List'!D17</f>
         <v>45322</v>
       </c>
-      <c r="E19" s="44" t="str">
+      <c r="E19" s="21" t="str">
         <f>'Master List'!E17</f>
         <v>Complete</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="24">
         <f>'Master List'!F17</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="str">
+      <c r="A20" s="25" t="str">
         <f>'Master List'!A18</f>
         <v>Research &amp; Summary: Boone 2030 Plan</v>
       </c>
-      <c r="B20" s="49" t="str">
+      <c r="B20" s="25" t="str">
         <f>'Master List'!B18</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C20" s="45" t="str">
+      <c r="C20" s="22" t="str">
         <f>'Master List'!C18</f>
         <v>Jingyi</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="30">
         <f>'Master List'!D18</f>
         <v>45334</v>
       </c>
-      <c r="E20" s="45" t="str">
+      <c r="E20" s="22" t="str">
         <f>'Master List'!E18</f>
         <v>In Progress</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="25">
         <f>'Master List'!F18</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="str">
+      <c r="A21" s="25" t="str">
         <f>'Master List'!A19</f>
         <v>Research &amp; Summary: Development Ordinances</v>
       </c>
-      <c r="B21" s="49" t="str">
+      <c r="B21" s="25" t="str">
         <f>'Master List'!B19</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C21" s="45" t="str">
+      <c r="C21" s="22" t="str">
         <f>'Master List'!C19</f>
         <v>Alice</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="30">
         <f>'Master List'!D19</f>
         <v>45334</v>
       </c>
-      <c r="E21" s="45" t="str">
+      <c r="E21" s="22" t="str">
         <f>'Master List'!E19</f>
         <v>In Progress</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="25">
         <f>'Master List'!F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="str">
+      <c r="A22" s="25" t="str">
         <f>'Master List'!A20</f>
         <v>Research &amp; Summary: Demographics</v>
       </c>
-      <c r="B22" s="49" t="str">
+      <c r="B22" s="25" t="str">
         <f>'Master List'!B20</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C22" s="45" t="str">
+      <c r="C22" s="22" t="str">
         <f>'Master List'!C20</f>
         <v>Kathleen</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="30">
         <f>'Master List'!D20</f>
         <v>45334</v>
       </c>
-      <c r="E22" s="45" t="str">
+      <c r="E22" s="22" t="str">
         <f>'Master List'!E20</f>
         <v>In Progress</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="25">
         <f>'Master List'!F20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="str">
+      <c r="A23" s="25" t="str">
         <f>'Master List'!A21</f>
         <v>Research &amp; Summary: Socio-economic Change</v>
       </c>
-      <c r="B23" s="49" t="str">
+      <c r="B23" s="25" t="str">
         <f>'Master List'!B21</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C23" s="45" t="str">
+      <c r="C23" s="22" t="str">
         <f>'Master List'!C21</f>
         <v>Yinan</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="30">
         <f>'Master List'!D21</f>
         <v>45334</v>
       </c>
-      <c r="E23" s="45" t="str">
+      <c r="E23" s="22" t="str">
         <f>'Master List'!E21</f>
         <v>In Progress</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="25">
         <f>'Master List'!F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="str">
+      <c r="A24" s="25" t="str">
         <f>'Master List'!A22</f>
         <v>Research &amp; Summary: Story of Affordability</v>
       </c>
-      <c r="B24" s="49" t="str">
+      <c r="B24" s="25" t="str">
         <f>'Master List'!B22</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C24" s="45" t="str">
+      <c r="C24" s="22" t="str">
         <f>'Master List'!C22</f>
         <v>Yinan</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="30">
         <f>'Master List'!D22</f>
         <v>45334</v>
       </c>
-      <c r="E24" s="45" t="str">
+      <c r="E24" s="22" t="str">
         <f>'Master List'!E22</f>
         <v>In Progress</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="25">
         <f>'Master List'!F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="str">
+      <c r="A25" s="25" t="str">
         <f>'Master List'!A23</f>
         <v>Research &amp; Summary:NC LIHTC Allocation Plan</v>
       </c>
-      <c r="B25" s="49" t="str">
+      <c r="B25" s="25" t="str">
         <f>'Master List'!B23</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C25" s="45" t="str">
+      <c r="C25" s="22" t="str">
         <f>'Master List'!C23</f>
         <v>Alice</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="30">
         <f>'Master List'!D23</f>
         <v>45334</v>
       </c>
-      <c r="E25" s="45" t="str">
+      <c r="E25" s="22" t="str">
         <f>'Master List'!E23</f>
         <v>In Progress</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="25">
         <f>'Master List'!F23</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="str">
+      <c r="A26" s="25" t="str">
         <f>'Master List'!A24</f>
-        <v>Research &amp; Summary: "Workforce" Housing Programs</v>
-      </c>
-      <c r="B26" s="49" t="str">
+        <v>Research &amp; Summary: "Workforce" Housing Programs &amp; surrounding context</v>
+      </c>
+      <c r="B26" s="25" t="str">
         <f>'Master List'!B24</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C26" s="45" t="str">
+      <c r="C26" s="22" t="str">
         <f>'Master List'!C24</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="30">
         <f>'Master List'!D24</f>
         <v>45334</v>
       </c>
-      <c r="E26" s="45" t="str">
+      <c r="E26" s="22" t="str">
         <f>'Master List'!E24</f>
         <v>In Progress</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="25">
         <f>'Master List'!F24</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="str">
+      <c r="A27" s="25" t="str">
         <f>'Master List'!A25</f>
         <v>Gather Open Data</v>
       </c>
-      <c r="B27" s="49" t="str">
+      <c r="B27" s="25" t="str">
         <f>'Master List'!B25</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C27" s="45" t="str">
+      <c r="C27" s="22" t="str">
         <f>'Master List'!C25</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="30">
         <f>'Master List'!D25</f>
         <v>45334</v>
       </c>
-      <c r="E27" s="45" t="str">
+      <c r="E27" s="22" t="str">
         <f>'Master List'!E25</f>
         <v>In Progress</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="25">
         <f>'Master List'!F25</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="str">
+      <c r="A28" s="25" t="str">
         <f>'Master List'!A26</f>
         <v xml:space="preserve">Data Wrangling: Septic Permit Web Scraping </v>
       </c>
-      <c r="B28" s="49" t="str">
+      <c r="B28" s="25" t="str">
         <f>'Master List'!B26</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C28" s="45" t="str">
+      <c r="C28" s="22" t="str">
         <f>'Master List'!C26</f>
         <v>Yinan</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="30">
         <f>'Master List'!D26</f>
         <v>45334</v>
       </c>
-      <c r="E28" s="45" t="str">
+      <c r="E28" s="22" t="str">
         <f>'Master List'!E26</f>
         <v>In Progress</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="25">
         <f>'Master List'!F26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="str">
+      <c r="A29" s="25" t="str">
         <f>'Master List'!A27</f>
         <v>Data Wrangling: Physiucal Landscape</v>
       </c>
-      <c r="B29" s="49" t="str">
+      <c r="B29" s="25" t="str">
         <f>'Master List'!B27</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C29" s="45" t="str">
+      <c r="C29" s="22" t="str">
         <f>'Master List'!C27</f>
         <v>Jingyi</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="30">
         <f>'Master List'!D27</f>
         <v>45334</v>
       </c>
-      <c r="E29" s="45" t="str">
+      <c r="E29" s="22" t="str">
         <f>'Master List'!E27</f>
         <v>In Progress</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="25">
         <f>'Master List'!F27</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="str">
+      <c r="A30" s="25" t="str">
         <f>'Master List'!A28</f>
         <v>Data Wrangling: Municipal &amp; Legal Lines</v>
       </c>
-      <c r="B30" s="49" t="str">
+      <c r="B30" s="25" t="str">
         <f>'Master List'!B28</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C30" s="45" t="str">
+      <c r="C30" s="22" t="str">
         <f>'Master List'!C28</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D30" s="54">
+      <c r="D30" s="30">
         <f>'Master List'!D28</f>
         <v>45334</v>
       </c>
-      <c r="E30" s="45" t="str">
+      <c r="E30" s="22" t="str">
         <f>'Master List'!E28</f>
         <v>In Progress</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="25">
         <f>'Master List'!F28</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="str">
+      <c r="A31" s="25" t="str">
         <f>'Master List'!A29</f>
         <v>Data Wrangling: Inventory of Built Environment</v>
       </c>
-      <c r="B31" s="49" t="str">
+      <c r="B31" s="25" t="str">
         <f>'Master List'!B29</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C31" s="45" t="str">
+      <c r="C31" s="22" t="str">
         <f>'Master List'!C29</f>
         <v>Alice</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="30">
         <f>'Master List'!D29</f>
         <v>45334</v>
       </c>
-      <c r="E31" s="45" t="str">
+      <c r="E31" s="22" t="str">
         <f>'Master List'!E29</f>
         <v>In Progress</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="25">
         <f>'Master List'!F29</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="str">
+      <c r="A32" s="25" t="str">
         <f>'Master List'!A30</f>
         <v>Data Wrangling: Demographics</v>
       </c>
-      <c r="B32" s="49" t="str">
+      <c r="B32" s="25" t="str">
         <f>'Master List'!B30</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C32" s="45" t="str">
+      <c r="C32" s="22" t="str">
         <f>'Master List'!C30</f>
         <v>Kathleen</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="30">
         <f>'Master List'!D30</f>
         <v>45334</v>
       </c>
-      <c r="E32" s="45" t="str">
+      <c r="E32" s="22" t="str">
         <f>'Master List'!E30</f>
         <v>In Progress</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="25">
         <f>'Master List'!F30</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="str">
+      <c r="A33" s="26" t="str">
         <f>'Master List'!A31</f>
         <v>Use Case &amp;  Exploratory Analysis Write Up</v>
       </c>
-      <c r="B33" s="50" t="str">
+      <c r="B33" s="26" t="str">
         <f>'Master List'!B31</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C33" s="46" t="str">
+      <c r="C33" s="23" t="str">
         <f>'Master List'!C31</f>
         <v>Jarred &amp; Kathleen</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="31">
         <f>'Master List'!D31</f>
         <v>45334</v>
       </c>
-      <c r="E33" s="46" t="str">
+      <c r="E33" s="23" t="str">
         <f>'Master List'!E31</f>
         <v>Not Started</v>
       </c>
-      <c r="F33" s="50">
+      <c r="F33" s="26">
         <f>'Master List'!F31</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="str">
+      <c r="A34" s="26" t="str">
         <f>'Master List'!A32</f>
         <v>Gather Open Data</v>
       </c>
-      <c r="B34" s="50" t="str">
+      <c r="B34" s="26" t="str">
         <f>'Master List'!B32</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C34" s="46" t="str">
+      <c r="C34" s="23" t="str">
         <f>'Master List'!C32</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="31">
         <f>'Master List'!D32</f>
         <v>45334</v>
       </c>
-      <c r="E34" s="46" t="str">
+      <c r="E34" s="23" t="str">
         <f>'Master List'!E32</f>
         <v>Not Started</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="26">
         <f>'Master List'!F32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="35"/>
-    </row>
+    <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2589,7 +2570,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709F25A-4308-4B82-8F2D-27514A37E9B2}">
-  <dimension ref="A2:J57"/>
+  <dimension ref="A2:F48"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
@@ -2599,460 +2580,454 @@
   <cols>
     <col min="1" max="1" width="59.44140625" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="43" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="20" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="42"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="42"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="70"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="41"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="67"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="str">
+      <c r="A10" s="25" t="str">
         <f>'Master List'!A18</f>
         <v>Research &amp; Summary: Boone 2030 Plan</v>
       </c>
-      <c r="B10" s="49" t="str">
+      <c r="B10" s="25" t="str">
         <f>'Master List'!B18</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C10" s="45" t="str">
+      <c r="C10" s="22" t="str">
         <f>'Master List'!C18</f>
         <v>Jingyi</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="30">
         <f>'Master List'!D18</f>
         <v>45334</v>
       </c>
-      <c r="E10" s="45" t="str">
+      <c r="E10" s="22" t="str">
         <f>'Master List'!E18</f>
         <v>In Progress</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="25">
         <f>'Master List'!F18</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="str">
+      <c r="A11" s="25" t="str">
         <f>'Master List'!A19</f>
         <v>Research &amp; Summary: Development Ordinances</v>
       </c>
-      <c r="B11" s="49" t="str">
+      <c r="B11" s="25" t="str">
         <f>'Master List'!B19</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C11" s="45" t="str">
+      <c r="C11" s="22" t="str">
         <f>'Master List'!C19</f>
         <v>Alice</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="30">
         <f>'Master List'!D19</f>
         <v>45334</v>
       </c>
-      <c r="E11" s="45" t="str">
+      <c r="E11" s="22" t="str">
         <f>'Master List'!E19</f>
         <v>In Progress</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="25">
         <f>'Master List'!F19</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="str">
+      <c r="A12" s="25" t="str">
         <f>'Master List'!A20</f>
         <v>Research &amp; Summary: Demographics</v>
       </c>
-      <c r="B12" s="49" t="str">
+      <c r="B12" s="25" t="str">
         <f>'Master List'!B20</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C12" s="45" t="str">
+      <c r="C12" s="22" t="str">
         <f>'Master List'!C20</f>
         <v>Kathleen</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="30">
         <f>'Master List'!D20</f>
         <v>45334</v>
       </c>
-      <c r="E12" s="45" t="str">
+      <c r="E12" s="22" t="str">
         <f>'Master List'!E20</f>
         <v>In Progress</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="25">
         <f>'Master List'!F20</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="str">
+      <c r="A13" s="25" t="str">
         <f>'Master List'!A21</f>
         <v>Research &amp; Summary: Socio-economic Change</v>
       </c>
-      <c r="B13" s="49" t="str">
+      <c r="B13" s="25" t="str">
         <f>'Master List'!B21</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C13" s="45" t="str">
+      <c r="C13" s="22" t="str">
         <f>'Master List'!C21</f>
         <v>Yinan</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="30">
         <f>'Master List'!D21</f>
         <v>45334</v>
       </c>
-      <c r="E13" s="45" t="str">
+      <c r="E13" s="22" t="str">
         <f>'Master List'!E21</f>
         <v>In Progress</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="25">
         <f>'Master List'!F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="str">
+      <c r="A14" s="25" t="str">
         <f>'Master List'!A22</f>
         <v>Research &amp; Summary: Story of Affordability</v>
       </c>
-      <c r="B14" s="49" t="str">
+      <c r="B14" s="25" t="str">
         <f>'Master List'!B22</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C14" s="45" t="str">
+      <c r="C14" s="22" t="str">
         <f>'Master List'!C22</f>
         <v>Yinan</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="30">
         <f>'Master List'!D22</f>
         <v>45334</v>
       </c>
-      <c r="E14" s="45" t="str">
+      <c r="E14" s="22" t="str">
         <f>'Master List'!E22</f>
         <v>In Progress</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="25">
         <f>'Master List'!F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="str">
+      <c r="A15" s="25" t="str">
         <f>'Master List'!A23</f>
         <v>Research &amp; Summary:NC LIHTC Allocation Plan</v>
       </c>
-      <c r="B15" s="49" t="str">
+      <c r="B15" s="25" t="str">
         <f>'Master List'!B23</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C15" s="45" t="str">
+      <c r="C15" s="22" t="str">
         <f>'Master List'!C23</f>
         <v>Alice</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="30">
         <f>'Master List'!D23</f>
         <v>45334</v>
       </c>
-      <c r="E15" s="45" t="str">
+      <c r="E15" s="22" t="str">
         <f>'Master List'!E23</f>
         <v>In Progress</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="25">
         <f>'Master List'!F23</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="str">
+      <c r="A16" s="25" t="str">
         <f>'Master List'!A24</f>
-        <v>Research &amp; Summary: "Workforce" Housing Programs</v>
-      </c>
-      <c r="B16" s="49" t="str">
+        <v>Research &amp; Summary: "Workforce" Housing Programs &amp; surrounding context</v>
+      </c>
+      <c r="B16" s="25" t="str">
         <f>'Master List'!B24</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C16" s="45" t="str">
+      <c r="C16" s="22" t="str">
         <f>'Master List'!C24</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="30">
         <f>'Master List'!D24</f>
         <v>45334</v>
       </c>
-      <c r="E16" s="45" t="str">
+      <c r="E16" s="22" t="str">
         <f>'Master List'!E24</f>
         <v>In Progress</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="25">
         <f>'Master List'!F24</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="str">
+      <c r="A17" s="25" t="str">
         <f>'Master List'!A25</f>
         <v>Gather Open Data</v>
       </c>
-      <c r="B17" s="49" t="str">
+      <c r="B17" s="25" t="str">
         <f>'Master List'!B25</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C17" s="45" t="str">
+      <c r="C17" s="22" t="str">
         <f>'Master List'!C25</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="30">
         <f>'Master List'!D25</f>
         <v>45334</v>
       </c>
-      <c r="E17" s="45" t="str">
+      <c r="E17" s="22" t="str">
         <f>'Master List'!E25</f>
         <v>In Progress</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="25">
         <f>'Master List'!F25</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="str">
+      <c r="A18" s="25" t="str">
         <f>'Master List'!A26</f>
         <v xml:space="preserve">Data Wrangling: Septic Permit Web Scraping </v>
       </c>
-      <c r="B18" s="49" t="str">
+      <c r="B18" s="25" t="str">
         <f>'Master List'!B26</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C18" s="45" t="str">
+      <c r="C18" s="22" t="str">
         <f>'Master List'!C26</f>
         <v>Yinan</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="30">
         <f>'Master List'!D26</f>
         <v>45334</v>
       </c>
-      <c r="E18" s="45" t="str">
+      <c r="E18" s="22" t="str">
         <f>'Master List'!E26</f>
         <v>In Progress</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="25">
         <f>'Master List'!F26</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="str">
+      <c r="A19" s="25" t="str">
         <f>'Master List'!A27</f>
         <v>Data Wrangling: Physiucal Landscape</v>
       </c>
-      <c r="B19" s="49" t="str">
+      <c r="B19" s="25" t="str">
         <f>'Master List'!B27</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C19" s="45" t="str">
+      <c r="C19" s="22" t="str">
         <f>'Master List'!C27</f>
         <v>Jingyi</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="30">
         <f>'Master List'!D27</f>
         <v>45334</v>
       </c>
-      <c r="E19" s="45" t="str">
+      <c r="E19" s="22" t="str">
         <f>'Master List'!E27</f>
         <v>In Progress</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="25">
         <f>'Master List'!F27</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="str">
+      <c r="A20" s="25" t="str">
         <f>'Master List'!A28</f>
         <v>Data Wrangling: Municipal &amp; Legal Lines</v>
       </c>
-      <c r="B20" s="49" t="str">
+      <c r="B20" s="25" t="str">
         <f>'Master List'!B28</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C20" s="45" t="str">
+      <c r="C20" s="22" t="str">
         <f>'Master List'!C28</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="30">
         <f>'Master List'!D28</f>
         <v>45334</v>
       </c>
-      <c r="E20" s="45" t="str">
+      <c r="E20" s="22" t="str">
         <f>'Master List'!E28</f>
         <v>In Progress</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="25">
         <f>'Master List'!F28</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="str">
+      <c r="A21" s="25" t="str">
         <f>'Master List'!A29</f>
         <v>Data Wrangling: Inventory of Built Environment</v>
       </c>
-      <c r="B21" s="49" t="str">
+      <c r="B21" s="25" t="str">
         <f>'Master List'!B29</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C21" s="45" t="str">
+      <c r="C21" s="22" t="str">
         <f>'Master List'!C29</f>
         <v>Alice</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="30">
         <f>'Master List'!D29</f>
         <v>45334</v>
       </c>
-      <c r="E21" s="45" t="str">
+      <c r="E21" s="22" t="str">
         <f>'Master List'!E29</f>
         <v>In Progress</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="25">
         <f>'Master List'!F29</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="str">
+      <c r="A22" s="25" t="str">
         <f>'Master List'!A30</f>
         <v>Data Wrangling: Demographics</v>
       </c>
-      <c r="B22" s="49" t="str">
+      <c r="B22" s="25" t="str">
         <f>'Master List'!B30</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C22" s="45" t="str">
+      <c r="C22" s="22" t="str">
         <f>'Master List'!C30</f>
         <v>Kathleen</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="30">
         <f>'Master List'!D30</f>
         <v>45334</v>
       </c>
-      <c r="E22" s="45" t="str">
+      <c r="E22" s="22" t="str">
         <f>'Master List'!E30</f>
         <v>In Progress</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="25">
         <f>'Master List'!F30</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="str">
+      <c r="A23" s="26" t="str">
         <f>'Master List'!A31</f>
         <v>Use Case &amp;  Exploratory Analysis Write Up</v>
       </c>
-      <c r="B23" s="50" t="str">
+      <c r="B23" s="26" t="str">
         <f>'Master List'!B31</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C23" s="46" t="str">
+      <c r="C23" s="23" t="str">
         <f>'Master List'!C31</f>
         <v>Jarred &amp; Kathleen</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="31">
         <f>'Master List'!D31</f>
         <v>45334</v>
       </c>
-      <c r="E23" s="46" t="str">
+      <c r="E23" s="23" t="str">
         <f>'Master List'!E31</f>
         <v>Not Started</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="26">
         <f>'Master List'!F31</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="str">
+      <c r="A24" s="26" t="str">
         <f>'Master List'!A32</f>
         <v>Gather Open Data</v>
       </c>
-      <c r="B24" s="50" t="str">
+      <c r="B24" s="26" t="str">
         <f>'Master List'!B32</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C24" s="46" t="str">
+      <c r="C24" s="23" t="str">
         <f>'Master List'!C32</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="31">
         <f>'Master List'!D32</f>
         <v>45334</v>
       </c>
-      <c r="E24" s="46" t="str">
+      <c r="E24" s="23" t="str">
         <f>'Master List'!E32</f>
         <v>Not Started</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="26">
         <f>'Master List'!F32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="35"/>
-    </row>
+    <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3060,294 +3035,105 @@
     <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-    </row>
-    <row r="35" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-    </row>
-    <row r="36" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-    </row>
-    <row r="37" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="81"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="81"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="81"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="81"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="81"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="81"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="81"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="84"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="78"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="78"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="78"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="78"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="78"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
+    <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+    </row>
+    <row r="37" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="53"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="53"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="53"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="53"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="56"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="56"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="56"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="53"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="56"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="53"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Project_Management/Master_TaskList.xlsx
+++ b/Project_Management/Master_TaskList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/882d96ecae48bf67/Documents/GitHub/Musa_801_Watauga/Project_Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{B7F9FCD8-7460-4968-8C0C-D038E2A95FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48FFC9F2-1F26-4695-A936-7E6D0202632E}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{B7F9FCD8-7460-4968-8C0C-D038E2A95FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F31514-2382-4386-9E48-E9DE3C9753E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8C268FC9-19D0-4C0C-87A3-F7021FE9D936}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8C268FC9-19D0-4C0C-87A3-F7021FE9D936}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="2" r:id="rId1"/>
@@ -40,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="65">
   <si>
     <t>Master Project Task List</t>
   </si>
@@ -187,6 +209,57 @@
   </si>
   <si>
     <t>Research &amp; Summary: "Workforce" Housing Programs &amp; surrounding context</t>
+  </si>
+  <si>
+    <t>Slides?</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Presentation outline</t>
+  </si>
+  <si>
+    <t>Exploratory analysis and markdown: Problem Statement + Use case</t>
+  </si>
+  <si>
+    <t>Exploratory analysis and markdown: Stakeholders and funding options</t>
+  </si>
+  <si>
+    <t>Phase 3: Exploratory analysis and Presentation 1</t>
+  </si>
+  <si>
+    <t>Jarred</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Data Wrangling: Soil and Water table</t>
+  </si>
+  <si>
+    <t>Exploratory analysis and markdown: Area contrext (Housing, demographics, housing)</t>
+  </si>
+  <si>
+    <t>Exploratory analysis and markdown: Correlation Matrix &amp; maps</t>
+  </si>
+  <si>
+    <t>Gingyi</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentatiuon one Markdown - Exploratory Analysis </t>
+  </si>
+  <si>
+    <t>Slides: Presentation 1</t>
+  </si>
+  <si>
+    <t>Exploratory analysis and markdown: any additional maps and graphics</t>
+  </si>
+  <si>
+    <t>Discuss on 02/20/23</t>
   </si>
 </sst>
 </file>
@@ -252,13 +325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,9 +632,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,9 +642,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,9 +650,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,9 +660,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -632,14 +693,84 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -650,82 +781,28 @@
     <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,9 +825,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -788,7 +865,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -894,7 +971,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1036,7 +1113,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1044,28 +1121,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787ECB8D-8165-4A52-8BED-4C7B932AEF48}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="53" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A20" zoomScale="53" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.88671875" customWidth="1"/>
+    <col min="1" max="1" width="111.88671875" customWidth="1"/>
     <col min="2" max="6" width="59.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -1076,483 +1153,717 @@
       <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="60"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="31">
         <v>45320</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="32" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="31">
         <v>45320</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="32" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="36">
         <v>45320</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="36">
         <v>45320</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="35" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="36">
         <v>45320</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="36">
         <v>45320</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="36">
         <v>45320</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="36">
         <v>45320</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="36">
         <v>45320</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="36">
         <v>45322</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="5"/>
+      <c r="D18" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="5"/>
+      <c r="D19" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="5"/>
+      <c r="D20" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="D21" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="47">
-        <v>45334</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="12"/>
+      <c r="D22" s="31">
+        <v>45334</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="12"/>
+      <c r="D23" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="5"/>
+      <c r="D24" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="5"/>
+      <c r="D25" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="5"/>
+      <c r="D26" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="5"/>
+      <c r="D27" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="5"/>
+      <c r="D28" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="5"/>
+      <c r="D29" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="44">
-        <v>45334</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="5"/>
+      <c r="D30" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="52">
-        <v>45334</v>
-      </c>
-      <c r="E31" s="51" t="s">
+      <c r="D31" s="40">
+        <v>45334</v>
+      </c>
+      <c r="E31" s="39" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:6" s="46" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="52">
-        <v>45334</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="5"/>
-    </row>
+      <c r="C32" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="72">
+        <v>45342</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="73"/>
+    </row>
+    <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="72">
+        <v>45345</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="73"/>
+    </row>
+    <row r="36" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="72">
+        <v>45345</v>
+      </c>
+      <c r="E36" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="73"/>
+    </row>
+    <row r="37" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="72">
+        <v>45345</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="73"/>
+    </row>
+    <row r="38" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="72">
+        <v>45345</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="73"/>
+    </row>
+    <row r="39" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="72">
+        <v>45345</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="73"/>
+    </row>
+    <row r="40" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="72">
+        <v>45345</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="72">
+        <v>45345</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="73"/>
+    </row>
+    <row r="42" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="72"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="73"/>
+    </row>
+    <row r="43" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="74"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="78"/>
+    </row>
+    <row r="44" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A6:F7" xr:uid="{787ECB8D-8165-4A52-8BED-4C7B932AEF48}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:F32">
@@ -1576,717 +1887,717 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89AB342-0BF2-4077-89D4-4B91F4A154D1}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87.5546875" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="19" customWidth="1"/>
     <col min="6" max="6" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="19"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="19"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="67"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="str">
+      <c r="A10" s="22" t="str">
         <f>'Master List'!A8</f>
         <v xml:space="preserve">Kickoff &amp; Meeting Minutes </v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="22" t="str">
         <f>'Master List'!B8</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C10" s="21" t="str">
+      <c r="C10" s="20" t="str">
         <f>'Master List'!C8</f>
         <v>Team</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="26">
         <f>'Master List'!D8</f>
         <v>45320</v>
       </c>
-      <c r="E10" s="21" t="str">
+      <c r="E10" s="20" t="str">
         <f>'Master List'!E8</f>
         <v>Complete</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <f>'Master List'!F8</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="str">
+      <c r="A11" s="22" t="str">
         <f>'Master List'!A9</f>
         <v>Project Management Plan</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="22" t="str">
         <f>'Master List'!B9</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="20" t="str">
         <f>'Master List'!C9</f>
         <v>Jarred &amp; Kathleen</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="26">
         <f>'Master List'!D9</f>
         <v>45320</v>
       </c>
-      <c r="E11" s="21" t="str">
+      <c r="E11" s="20" t="str">
         <f>'Master List'!E9</f>
         <v>Complete</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <f>'Master List'!F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="str">
+      <c r="A12" s="22" t="str">
         <f>'Master List'!A10</f>
         <v>Project Schedule: Gant Chart</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="22" t="str">
         <f>'Master List'!B10</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="20" t="str">
         <f>'Master List'!C10</f>
         <v>Kathleen</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="26">
         <f>'Master List'!D10</f>
         <v>45320</v>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="20" t="str">
         <f>'Master List'!E10</f>
         <v>Complete</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <f>'Master List'!F10</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="str">
+      <c r="A13" s="22" t="str">
         <f>'Master List'!A11</f>
         <v>Project Setup: Github Repo</v>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="22" t="str">
         <f>'Master List'!B11</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C13" s="21" t="str">
+      <c r="C13" s="20" t="str">
         <f>'Master List'!C11</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="26">
         <f>'Master List'!D11</f>
         <v>45320</v>
       </c>
-      <c r="E13" s="21" t="str">
+      <c r="E13" s="20" t="str">
         <f>'Master List'!E11</f>
         <v>Complete</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <f>'Master List'!F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="str">
+      <c r="A14" s="22" t="str">
         <f>'Master List'!A12</f>
         <v>Update Readme with progress (week1-3)</v>
       </c>
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="22" t="str">
         <f>'Master List'!B12</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="20" t="str">
         <f>'Master List'!C12</f>
         <v>Kathleen</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="26">
         <f>'Master List'!D12</f>
         <v>45320</v>
       </c>
-      <c r="E14" s="21" t="str">
+      <c r="E14" s="20" t="str">
         <f>'Master List'!E12</f>
         <v>Complete</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22" t="str">
         <f>'Master List'!F12</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="str">
+      <c r="A15" s="22" t="str">
         <f>'Master List'!A13</f>
         <v>Update Presentation Slides (week1-3)</v>
       </c>
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="22" t="str">
         <f>'Master List'!B13</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <f>'Master List'!C13</f>
         <v>Jingyi &amp; Yinan</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="26">
         <f>'Master List'!D13</f>
         <v>45320</v>
       </c>
-      <c r="E15" s="21" t="str">
+      <c r="E15" s="20" t="str">
         <f>'Master List'!E13</f>
         <v>Complete</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22" t="str">
         <f>'Master List'!F13</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="str">
+      <c r="A16" s="22" t="str">
         <f>'Master List'!A14</f>
         <v>Update Readme with progress (week3-5)</v>
       </c>
-      <c r="B16" s="24" t="str">
+      <c r="B16" s="22" t="str">
         <f>'Master List'!B14</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="20" t="str">
         <f>'Master List'!C14</f>
         <v>Kathleen</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="26">
         <f>'Master List'!D14</f>
         <v>45320</v>
       </c>
-      <c r="E16" s="21" t="str">
+      <c r="E16" s="20" t="str">
         <f>'Master List'!E14</f>
         <v>Complete</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22" t="str">
         <f>'Master List'!F14</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="str">
+      <c r="A17" s="22" t="str">
         <f>'Master List'!A15</f>
         <v>Update Readme with progress</v>
       </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="22" t="str">
         <f>'Master List'!B15</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="20" t="str">
         <f>'Master List'!C15</f>
         <v>Kathleen</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="26">
         <f>'Master List'!D15</f>
         <v>45320</v>
       </c>
-      <c r="E17" s="21" t="str">
+      <c r="E17" s="20" t="str">
         <f>'Master List'!E15</f>
         <v>Complete</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22" t="str">
         <f>'Master List'!F15</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="str">
+      <c r="A18" s="22" t="str">
         <f>'Master List'!A16</f>
         <v>Update Presentation Slides (week3-5)</v>
       </c>
-      <c r="B18" s="24" t="str">
+      <c r="B18" s="22" t="str">
         <f>'Master List'!B16</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="C18" s="20" t="str">
         <f>'Master List'!C16</f>
         <v>Jingyi &amp; Yinan</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="26">
         <f>'Master List'!D16</f>
         <v>45320</v>
       </c>
-      <c r="E18" s="21" t="str">
+      <c r="E18" s="20" t="str">
         <f>'Master List'!E16</f>
         <v>Complete</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22" t="str">
         <f>'Master List'!F16</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="str">
+      <c r="A19" s="22" t="str">
         <f>'Master List'!A17</f>
         <v xml:space="preserve">Chris Quattro Meeting &amp; Minutes </v>
       </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="22" t="str">
         <f>'Master List'!B17</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="C19" s="20" t="str">
         <f>'Master List'!C17</f>
         <v>Team</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="26">
         <f>'Master List'!D17</f>
         <v>45322</v>
       </c>
-      <c r="E19" s="21" t="str">
+      <c r="E19" s="20" t="str">
         <f>'Master List'!E17</f>
         <v>Complete</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22" t="str">
         <f>'Master List'!F17</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="str">
+      <c r="A20" s="22" t="str">
         <f>'Master List'!A18</f>
         <v>Research &amp; Summary: Boone 2030 Plan</v>
       </c>
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="22" t="str">
         <f>'Master List'!B18</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="20" t="str">
         <f>'Master List'!C18</f>
         <v>Jingyi</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="26">
         <f>'Master List'!D18</f>
         <v>45334</v>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="E20" s="20" t="str">
         <f>'Master List'!E18</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F20" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F20" s="22" t="str">
         <f>'Master List'!F18</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="str">
+      <c r="A21" s="22" t="str">
         <f>'Master List'!A19</f>
         <v>Research &amp; Summary: Development Ordinances</v>
       </c>
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="22" t="str">
         <f>'Master List'!B19</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="20" t="str">
         <f>'Master List'!C19</f>
         <v>Alice</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="26">
         <f>'Master List'!D19</f>
         <v>45334</v>
       </c>
-      <c r="E21" s="22" t="str">
+      <c r="E21" s="20" t="str">
         <f>'Master List'!E19</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F21" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F21" s="22" t="str">
         <f>'Master List'!F19</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="str">
+      <c r="A22" s="22" t="str">
         <f>'Master List'!A20</f>
         <v>Research &amp; Summary: Demographics</v>
       </c>
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="22" t="str">
         <f>'Master List'!B20</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="20" t="str">
         <f>'Master List'!C20</f>
         <v>Kathleen</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="26">
         <f>'Master List'!D20</f>
         <v>45334</v>
       </c>
-      <c r="E22" s="22" t="str">
+      <c r="E22" s="20" t="str">
         <f>'Master List'!E20</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F22" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F22" s="22" t="str">
         <f>'Master List'!F20</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="str">
+      <c r="A23" s="22" t="str">
         <f>'Master List'!A21</f>
         <v>Research &amp; Summary: Socio-economic Change</v>
       </c>
-      <c r="B23" s="25" t="str">
+      <c r="B23" s="22" t="str">
         <f>'Master List'!B21</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="20" t="str">
         <f>'Master List'!C21</f>
         <v>Yinan</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="26">
         <f>'Master List'!D21</f>
         <v>45334</v>
       </c>
-      <c r="E23" s="22" t="str">
+      <c r="E23" s="20" t="str">
         <f>'Master List'!E21</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F23" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F23" s="22" t="str">
         <f>'Master List'!F21</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="str">
+      <c r="A24" s="22" t="str">
         <f>'Master List'!A22</f>
         <v>Research &amp; Summary: Story of Affordability</v>
       </c>
-      <c r="B24" s="25" t="str">
+      <c r="B24" s="22" t="str">
         <f>'Master List'!B22</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="20" t="str">
         <f>'Master List'!C22</f>
         <v>Yinan</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="26">
         <f>'Master List'!D22</f>
         <v>45334</v>
       </c>
-      <c r="E24" s="22" t="str">
+      <c r="E24" s="20" t="str">
         <f>'Master List'!E22</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F24" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F24" s="22" t="str">
         <f>'Master List'!F22</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="str">
+      <c r="A25" s="22" t="str">
         <f>'Master List'!A23</f>
         <v>Research &amp; Summary:NC LIHTC Allocation Plan</v>
       </c>
-      <c r="B25" s="25" t="str">
+      <c r="B25" s="22" t="str">
         <f>'Master List'!B23</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="20" t="str">
         <f>'Master List'!C23</f>
         <v>Alice</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="26">
         <f>'Master List'!D23</f>
         <v>45334</v>
       </c>
-      <c r="E25" s="22" t="str">
+      <c r="E25" s="20" t="str">
         <f>'Master List'!E23</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F25" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F25" s="22" t="str">
         <f>'Master List'!F23</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="str">
+      <c r="A26" s="22" t="str">
         <f>'Master List'!A24</f>
         <v>Research &amp; Summary: "Workforce" Housing Programs &amp; surrounding context</v>
       </c>
-      <c r="B26" s="25" t="str">
+      <c r="B26" s="22" t="str">
         <f>'Master List'!B24</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="20" t="str">
         <f>'Master List'!C24</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="26">
         <f>'Master List'!D24</f>
         <v>45334</v>
       </c>
-      <c r="E26" s="22" t="str">
+      <c r="E26" s="20" t="str">
         <f>'Master List'!E24</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F26" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F26" s="22" t="str">
         <f>'Master List'!F24</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="str">
+      <c r="A27" s="22" t="str">
         <f>'Master List'!A25</f>
         <v>Gather Open Data</v>
       </c>
-      <c r="B27" s="25" t="str">
+      <c r="B27" s="22" t="str">
         <f>'Master List'!B25</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="20" t="str">
         <f>'Master List'!C25</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="26">
         <f>'Master List'!D25</f>
         <v>45334</v>
       </c>
-      <c r="E27" s="22" t="str">
+      <c r="E27" s="20" t="str">
         <f>'Master List'!E25</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F27" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F27" s="22" t="str">
         <f>'Master List'!F25</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="str">
+      <c r="A28" s="22" t="str">
         <f>'Master List'!A26</f>
         <v xml:space="preserve">Data Wrangling: Septic Permit Web Scraping </v>
       </c>
-      <c r="B28" s="25" t="str">
+      <c r="B28" s="22" t="str">
         <f>'Master List'!B26</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="20" t="str">
         <f>'Master List'!C26</f>
         <v>Yinan</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="26">
         <f>'Master List'!D26</f>
         <v>45334</v>
       </c>
-      <c r="E28" s="22" t="str">
+      <c r="E28" s="20" t="str">
         <f>'Master List'!E26</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F28" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F28" s="22" t="str">
         <f>'Master List'!F26</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="str">
+      <c r="A29" s="22" t="str">
         <f>'Master List'!A27</f>
         <v>Data Wrangling: Physiucal Landscape</v>
       </c>
-      <c r="B29" s="25" t="str">
+      <c r="B29" s="22" t="str">
         <f>'Master List'!B27</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C29" s="22" t="str">
+      <c r="C29" s="20" t="str">
         <f>'Master List'!C27</f>
         <v>Jingyi</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="26">
         <f>'Master List'!D27</f>
         <v>45334</v>
       </c>
-      <c r="E29" s="22" t="str">
+      <c r="E29" s="20" t="str">
         <f>'Master List'!E27</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F29" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F29" s="22" t="str">
         <f>'Master List'!F27</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="str">
+      <c r="A30" s="22" t="str">
         <f>'Master List'!A28</f>
         <v>Data Wrangling: Municipal &amp; Legal Lines</v>
       </c>
-      <c r="B30" s="25" t="str">
+      <c r="B30" s="22" t="str">
         <f>'Master List'!B28</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C30" s="22" t="str">
+      <c r="C30" s="20" t="str">
         <f>'Master List'!C28</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="26">
         <f>'Master List'!D28</f>
         <v>45334</v>
       </c>
-      <c r="E30" s="22" t="str">
+      <c r="E30" s="20" t="str">
         <f>'Master List'!E28</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F30" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F30" s="22" t="str">
         <f>'Master List'!F28</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="str">
+      <c r="A31" s="22" t="str">
         <f>'Master List'!A29</f>
         <v>Data Wrangling: Inventory of Built Environment</v>
       </c>
-      <c r="B31" s="25" t="str">
+      <c r="B31" s="22" t="str">
         <f>'Master List'!B29</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C31" s="22" t="str">
+      <c r="C31" s="20" t="str">
         <f>'Master List'!C29</f>
         <v>Alice</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D31" s="26">
         <f>'Master List'!D29</f>
         <v>45334</v>
       </c>
-      <c r="E31" s="22" t="str">
+      <c r="E31" s="20" t="str">
         <f>'Master List'!E29</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F31" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F31" s="22" t="str">
         <f>'Master List'!F29</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="str">
+      <c r="A32" s="22" t="str">
         <f>'Master List'!A30</f>
         <v>Data Wrangling: Demographics</v>
       </c>
-      <c r="B32" s="25" t="str">
+      <c r="B32" s="22" t="str">
         <f>'Master List'!B30</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C32" s="22" t="str">
+      <c r="C32" s="20" t="str">
         <f>'Master List'!C30</f>
         <v>Kathleen</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="26">
         <f>'Master List'!D30</f>
         <v>45334</v>
       </c>
-      <c r="E32" s="22" t="str">
+      <c r="E32" s="20" t="str">
         <f>'Master List'!E30</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F32" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F32" s="22" t="str">
         <f>'Master List'!F30</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="str">
+      <c r="A33" s="23" t="str">
         <f>'Master List'!A31</f>
         <v>Use Case &amp;  Exploratory Analysis Write Up</v>
       </c>
-      <c r="B33" s="26" t="str">
+      <c r="B33" s="23" t="str">
         <f>'Master List'!B31</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="21" t="str">
         <f>'Master List'!C31</f>
         <v>Jarred &amp; Kathleen</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="27">
         <f>'Master List'!D31</f>
         <v>45334</v>
       </c>
-      <c r="E33" s="23" t="str">
+      <c r="E33" s="21" t="str">
         <f>'Master List'!E31</f>
         <v>Not Started</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="23">
         <f>'Master List'!F31</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="str">
+      <c r="A34" s="23" t="str">
         <f>'Master List'!A32</f>
         <v>Gather Open Data</v>
       </c>
-      <c r="B34" s="26" t="str">
+      <c r="B34" s="23" t="str">
         <f>'Master List'!B32</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C34" s="23" t="str">
+      <c r="C34" s="21" t="str">
         <f>'Master List'!C32</f>
-        <v xml:space="preserve">Jarred </v>
-      </c>
-      <c r="D34" s="31">
+        <v>Everyone</v>
+      </c>
+      <c r="D34" s="27">
         <f>'Master List'!D32</f>
         <v>45334</v>
       </c>
-      <c r="E34" s="23" t="str">
+      <c r="E34" s="21" t="str">
         <f>'Master List'!E32</f>
-        <v>Not Started</v>
-      </c>
-      <c r="F34" s="26">
+        <v>Complete</v>
+      </c>
+      <c r="F34" s="23">
         <f>'Master List'!F32</f>
         <v>0</v>
       </c>
@@ -2572,568 +2883,691 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709F25A-4308-4B82-8F2D-27514A37E9B2}">
   <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" customWidth="1"/>
+    <col min="1" max="1" width="92.88671875" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="19"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="19"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="60"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="67"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="str">
+      <c r="A10" s="22" t="str">
         <f>'Master List'!A18</f>
         <v>Research &amp; Summary: Boone 2030 Plan</v>
       </c>
-      <c r="B10" s="25" t="str">
+      <c r="B10" s="22" t="str">
         <f>'Master List'!B18</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="20" t="str">
         <f>'Master List'!C18</f>
         <v>Jingyi</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="26">
         <f>'Master List'!D18</f>
         <v>45334</v>
       </c>
-      <c r="E10" s="22" t="str">
+      <c r="E10" s="20" t="str">
         <f>'Master List'!E18</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F10" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F10" s="22" t="str">
         <f>'Master List'!F18</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="str">
+      <c r="A11" s="22" t="str">
         <f>'Master List'!A19</f>
         <v>Research &amp; Summary: Development Ordinances</v>
       </c>
-      <c r="B11" s="25" t="str">
+      <c r="B11" s="22" t="str">
         <f>'Master List'!B19</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="20" t="str">
         <f>'Master List'!C19</f>
         <v>Alice</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <f>'Master List'!D19</f>
         <v>45334</v>
       </c>
-      <c r="E11" s="22" t="str">
+      <c r="E11" s="20" t="str">
         <f>'Master List'!E19</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F11" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F11" s="22" t="str">
         <f>'Master List'!F19</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="str">
+      <c r="A12" s="22" t="str">
         <f>'Master List'!A20</f>
         <v>Research &amp; Summary: Demographics</v>
       </c>
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="22" t="str">
         <f>'Master List'!B20</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="20" t="str">
         <f>'Master List'!C20</f>
         <v>Kathleen</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="26">
         <f>'Master List'!D20</f>
         <v>45334</v>
       </c>
-      <c r="E12" s="22" t="str">
+      <c r="E12" s="20" t="str">
         <f>'Master List'!E20</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F12" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F12" s="22" t="str">
         <f>'Master List'!F20</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="str">
+      <c r="A13" s="22" t="str">
         <f>'Master List'!A21</f>
         <v>Research &amp; Summary: Socio-economic Change</v>
       </c>
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="22" t="str">
         <f>'Master List'!B21</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="20" t="str">
         <f>'Master List'!C21</f>
         <v>Yinan</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="26">
         <f>'Master List'!D21</f>
         <v>45334</v>
       </c>
-      <c r="E13" s="22" t="str">
+      <c r="E13" s="20" t="str">
         <f>'Master List'!E21</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F13" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F13" s="22" t="str">
         <f>'Master List'!F21</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="str">
+      <c r="A14" s="22" t="str">
         <f>'Master List'!A22</f>
         <v>Research &amp; Summary: Story of Affordability</v>
       </c>
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="22" t="str">
         <f>'Master List'!B22</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="20" t="str">
         <f>'Master List'!C22</f>
         <v>Yinan</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <f>'Master List'!D22</f>
         <v>45334</v>
       </c>
-      <c r="E14" s="22" t="str">
+      <c r="E14" s="20" t="str">
         <f>'Master List'!E22</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F14" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F14" s="22" t="str">
         <f>'Master List'!F22</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="str">
+      <c r="A15" s="22" t="str">
         <f>'Master List'!A23</f>
         <v>Research &amp; Summary:NC LIHTC Allocation Plan</v>
       </c>
-      <c r="B15" s="25" t="str">
+      <c r="B15" s="22" t="str">
         <f>'Master List'!B23</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="20" t="str">
         <f>'Master List'!C23</f>
         <v>Alice</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="26">
         <f>'Master List'!D23</f>
         <v>45334</v>
       </c>
-      <c r="E15" s="22" t="str">
+      <c r="E15" s="20" t="str">
         <f>'Master List'!E23</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F15" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F15" s="22" t="str">
         <f>'Master List'!F23</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="str">
+      <c r="A16" s="22" t="str">
         <f>'Master List'!A24</f>
         <v>Research &amp; Summary: "Workforce" Housing Programs &amp; surrounding context</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="22" t="str">
         <f>'Master List'!B24</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="20" t="str">
         <f>'Master List'!C24</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="26">
         <f>'Master List'!D24</f>
         <v>45334</v>
       </c>
-      <c r="E16" s="22" t="str">
+      <c r="E16" s="20" t="str">
         <f>'Master List'!E24</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F16" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F16" s="22" t="str">
         <f>'Master List'!F24</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="str">
+      <c r="A17" s="22" t="str">
         <f>'Master List'!A25</f>
         <v>Gather Open Data</v>
       </c>
-      <c r="B17" s="25" t="str">
+      <c r="B17" s="22" t="str">
         <f>'Master List'!B25</f>
         <v>Phase 1: Project Setup and Qualitative Research</v>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="20" t="str">
         <f>'Master List'!C25</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>'Master List'!D25</f>
         <v>45334</v>
       </c>
-      <c r="E17" s="22" t="str">
+      <c r="E17" s="20" t="str">
         <f>'Master List'!E25</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F17" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F17" s="22" t="str">
         <f>'Master List'!F25</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="str">
+      <c r="A18" s="22" t="str">
         <f>'Master List'!A26</f>
         <v xml:space="preserve">Data Wrangling: Septic Permit Web Scraping </v>
       </c>
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="22" t="str">
         <f>'Master List'!B26</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="20" t="str">
         <f>'Master List'!C26</f>
         <v>Yinan</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="26">
         <f>'Master List'!D26</f>
         <v>45334</v>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="20" t="str">
         <f>'Master List'!E26</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F18" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F18" s="22" t="str">
         <f>'Master List'!F26</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="str">
+      <c r="A19" s="22" t="str">
         <f>'Master List'!A27</f>
         <v>Data Wrangling: Physiucal Landscape</v>
       </c>
-      <c r="B19" s="25" t="str">
+      <c r="B19" s="22" t="str">
         <f>'Master List'!B27</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="20" t="str">
         <f>'Master List'!C27</f>
         <v>Jingyi</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="26">
         <f>'Master List'!D27</f>
         <v>45334</v>
       </c>
-      <c r="E19" s="22" t="str">
+      <c r="E19" s="20" t="str">
         <f>'Master List'!E27</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F19" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F19" s="22" t="str">
         <f>'Master List'!F27</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="str">
+      <c r="A20" s="22" t="str">
         <f>'Master List'!A28</f>
         <v>Data Wrangling: Municipal &amp; Legal Lines</v>
       </c>
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="22" t="str">
         <f>'Master List'!B28</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="20" t="str">
         <f>'Master List'!C28</f>
         <v xml:space="preserve">Jarred </v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="26">
         <f>'Master List'!D28</f>
         <v>45334</v>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="E20" s="20" t="str">
         <f>'Master List'!E28</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F20" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F20" s="22" t="str">
         <f>'Master List'!F28</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="str">
+      <c r="A21" s="22" t="str">
         <f>'Master List'!A29</f>
         <v>Data Wrangling: Inventory of Built Environment</v>
       </c>
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="22" t="str">
         <f>'Master List'!B29</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="20" t="str">
         <f>'Master List'!C29</f>
         <v>Alice</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="26">
         <f>'Master List'!D29</f>
         <v>45334</v>
       </c>
-      <c r="E21" s="22" t="str">
+      <c r="E21" s="20" t="str">
         <f>'Master List'!E29</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F21" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F21" s="22" t="str">
         <f>'Master List'!F29</f>
-        <v>0</v>
+        <v>Slides?</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="str">
+      <c r="A22" s="22" t="str">
         <f>'Master List'!A30</f>
         <v>Data Wrangling: Demographics</v>
       </c>
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="22" t="str">
         <f>'Master List'!B30</f>
         <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="20" t="str">
         <f>'Master List'!C30</f>
         <v>Kathleen</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="26">
         <f>'Master List'!D30</f>
         <v>45334</v>
       </c>
-      <c r="E22" s="22" t="str">
+      <c r="E22" s="20" t="str">
         <f>'Master List'!E30</f>
-        <v>In Progress</v>
-      </c>
-      <c r="F22" s="25">
+        <v>Complete</v>
+      </c>
+      <c r="F22" s="22" t="str">
         <f>'Master List'!F30</f>
+        <v>Slides?</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="79" t="str" cm="1">
+        <f t="array" ref="A23:F23">'Master List'!A34:F34</f>
+        <v>Data Wrangling: Soil and Water table</v>
+      </c>
+      <c r="B23" s="79" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C23" s="80" t="str">
+        <v>Everyone</v>
+      </c>
+      <c r="D23" s="81">
+        <v>45342</v>
+      </c>
+      <c r="E23" s="80" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="F23" s="79">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="str">
-        <f>'Master List'!A31</f>
-        <v>Use Case &amp;  Exploratory Analysis Write Up</v>
-      </c>
-      <c r="B23" s="26" t="str">
-        <f>'Master List'!B31</f>
-        <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
-      </c>
-      <c r="C23" s="23" t="str">
-        <f>'Master List'!C31</f>
-        <v>Jarred &amp; Kathleen</v>
-      </c>
-      <c r="D23" s="31">
-        <f>'Master List'!D31</f>
-        <v>45334</v>
-      </c>
-      <c r="E23" s="23" t="str">
-        <f>'Master List'!E31</f>
-        <v>Not Started</v>
-      </c>
-      <c r="F23" s="26">
-        <f>'Master List'!F31</f>
+    <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="79" t="str" cm="1">
+        <f t="array" ref="A24:F31">'Master List'!A35:F42</f>
+        <v>Exploratory analysis and markdown: Problem Statement + Use case</v>
+      </c>
+      <c r="B24" s="79" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C24" s="80" t="str">
+        <v>Jarred</v>
+      </c>
+      <c r="D24" s="81">
+        <v>45345</v>
+      </c>
+      <c r="E24" s="80" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="F24" s="79">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="str">
-        <f>'Master List'!A32</f>
-        <v>Gather Open Data</v>
-      </c>
-      <c r="B24" s="26" t="str">
-        <f>'Master List'!B32</f>
-        <v>Phase 2: Data Wrangling &amp; Exploratory Analysis</v>
-      </c>
-      <c r="C24" s="23" t="str">
-        <f>'Master List'!C32</f>
-        <v xml:space="preserve">Jarred </v>
-      </c>
-      <c r="D24" s="31">
-        <f>'Master List'!D32</f>
-        <v>45334</v>
-      </c>
-      <c r="E24" s="23" t="str">
-        <f>'Master List'!E32</f>
-        <v>Not Started</v>
-      </c>
-      <c r="F24" s="26">
-        <f>'Master List'!F32</f>
+    <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="82" t="str">
+        <v>Exploratory analysis and markdown: Stakeholders and funding options</v>
+      </c>
+      <c r="B25" s="82" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C25" s="80" t="str">
+        <v>Jarred</v>
+      </c>
+      <c r="D25" s="81">
+        <v>45345</v>
+      </c>
+      <c r="E25" s="80" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="F25" s="82">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="82" t="str">
+        <v>Exploratory analysis and markdown: Area contrext (Housing, demographics, housing)</v>
+      </c>
+      <c r="B26" s="82" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C26" s="80" t="str">
+        <v>Kathleen</v>
+      </c>
+      <c r="D26" s="81">
+        <v>45345</v>
+      </c>
+      <c r="E26" s="80" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="F26" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="82" t="str">
+        <v>Exploratory analysis and markdown: Correlation Matrix &amp; maps</v>
+      </c>
+      <c r="B27" s="82" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C27" s="80" t="str">
+        <v>Yinan</v>
+      </c>
+      <c r="D27" s="81">
+        <v>45345</v>
+      </c>
+      <c r="E27" s="80" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="F27" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="82" t="str">
+        <v>Exploratory analysis and markdown: Correlation Matrix &amp; maps</v>
+      </c>
+      <c r="B28" s="82" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C28" s="80" t="str">
+        <v>Gingyi</v>
+      </c>
+      <c r="D28" s="81">
+        <v>45345</v>
+      </c>
+      <c r="E28" s="80" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="F28" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="82" t="str">
+        <v>Exploratory analysis and markdown: any additional maps and graphics</v>
+      </c>
+      <c r="B29" s="82" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C29" s="80" t="str">
+        <v>Everyone</v>
+      </c>
+      <c r="D29" s="81">
+        <v>45345</v>
+      </c>
+      <c r="E29" s="80" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="F29" s="82" t="str">
+        <v>Discuss on 02/20/23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="82" t="str">
+        <v xml:space="preserve">Presentatiuon one Markdown - Exploratory Analysis </v>
+      </c>
+      <c r="B30" s="82" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C30" s="80" t="str">
+        <v>?</v>
+      </c>
+      <c r="D30" s="81">
+        <v>45345</v>
+      </c>
+      <c r="E30" s="80" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="F30" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="82" t="str">
+        <v>Slides: Presentation 1</v>
+      </c>
+      <c r="B31" s="82" t="str">
+        <v>Phase 3: Exploratory analysis and Presentation 1</v>
+      </c>
+      <c r="C31" s="80" t="str">
+        <v>Alice</v>
+      </c>
+      <c r="D31" s="81">
+        <v>0</v>
+      </c>
+      <c r="E31" s="80">
+        <v>0</v>
+      </c>
+      <c r="F31" s="82">
+        <v>0</v>
+      </c>
+    </row>
     <row r="32" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="56"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="56"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="56"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="56"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="56"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="56"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="56"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="56"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="56"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Project_Management/Master_TaskList.xlsx
+++ b/Project_Management/Master_TaskList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/882d96ecae48bf67/Documents/GitHub/Musa_801_Watauga/Project_Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="8_{B7F9FCD8-7460-4968-8C0C-D038E2A95FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F31514-2382-4386-9E48-E9DE3C9753E3}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="8_{B7F9FCD8-7460-4968-8C0C-D038E2A95FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B83F020B-383F-4F03-8340-59F8AE86DDFC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8C268FC9-19D0-4C0C-87A3-F7021FE9D936}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8C268FC9-19D0-4C0C-87A3-F7021FE9D936}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="2" r:id="rId1"/>
@@ -298,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,12 +329,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -589,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -683,16 +677,6 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -705,6 +689,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,38 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787ECB8D-8165-4A52-8BED-4C7B932AEF48}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="53" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="53" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,24 +1596,24 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="40">
-        <v>45334</v>
-      </c>
-      <c r="E31" s="39" t="s">
+      <c r="D31" s="36">
+        <v>45334</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="46" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="42" customFormat="1" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>11</v>
       </c>
@@ -1666,7 +1629,7 @@
       <c r="E32" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
@@ -1684,175 +1647,175 @@
       <c r="E33" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="72">
+      <c r="D34" s="36">
         <v>45342</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="72">
+      <c r="D35" s="36">
         <v>45345</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="73"/>
+      <c r="F35" s="41"/>
     </row>
     <row r="36" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="72">
+      <c r="D36" s="36">
         <v>45345</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="41"/>
     </row>
     <row r="37" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="72">
+      <c r="D37" s="36">
         <v>45345</v>
       </c>
-      <c r="E37" s="71" t="s">
+      <c r="E37" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="73"/>
+      <c r="F37" s="41"/>
     </row>
     <row r="38" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="72">
+      <c r="D38" s="36">
         <v>45345</v>
       </c>
-      <c r="E38" s="71" t="s">
+      <c r="E38" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="73"/>
+      <c r="F38" s="41"/>
     </row>
     <row r="39" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="72">
+      <c r="D39" s="36">
         <v>45345</v>
       </c>
-      <c r="E39" s="71" t="s">
+      <c r="E39" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="73"/>
+      <c r="F39" s="41"/>
     </row>
     <row r="40" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="72">
+      <c r="D40" s="36">
         <v>45345</v>
       </c>
-      <c r="E40" s="71" t="s">
+      <c r="E40" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="73" t="s">
+      <c r="F40" s="41" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="72">
+      <c r="D41" s="36">
         <v>45345</v>
       </c>
-      <c r="E41" s="71" t="s">
+      <c r="E41" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="73"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="73"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="41"/>
     </row>
     <row r="43" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="78"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2883,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709F25A-4308-4B82-8F2D-27514A37E9B2}">
   <dimension ref="A2:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3287,184 +3250,184 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="79" t="str" cm="1">
+      <c r="A23" s="22" t="str" cm="1">
         <f t="array" ref="A23:F23">'Master List'!A34:F34</f>
         <v>Data Wrangling: Soil and Water table</v>
       </c>
-      <c r="B23" s="79" t="str">
+      <c r="B23" s="22" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C23" s="80" t="str">
+      <c r="C23" s="20" t="str">
         <v>Everyone</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="26">
         <v>45342</v>
       </c>
-      <c r="E23" s="80" t="str">
+      <c r="E23" s="20" t="str">
         <v>In progress</v>
       </c>
-      <c r="F23" s="79">
+      <c r="F23" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="79" t="str" cm="1">
+      <c r="A24" s="22" t="str" cm="1">
         <f t="array" ref="A24:F31">'Master List'!A35:F42</f>
         <v>Exploratory analysis and markdown: Problem Statement + Use case</v>
       </c>
-      <c r="B24" s="79" t="str">
+      <c r="B24" s="22" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C24" s="80" t="str">
+      <c r="C24" s="20" t="str">
         <v>Jarred</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="26">
         <v>45345</v>
       </c>
-      <c r="E24" s="80" t="str">
+      <c r="E24" s="20" t="str">
         <v>In progress</v>
       </c>
-      <c r="F24" s="79">
+      <c r="F24" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82" t="str">
+      <c r="A25" s="69" t="str">
         <v>Exploratory analysis and markdown: Stakeholders and funding options</v>
       </c>
-      <c r="B25" s="82" t="str">
+      <c r="B25" s="69" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C25" s="80" t="str">
+      <c r="C25" s="20" t="str">
         <v>Jarred</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="26">
         <v>45345</v>
       </c>
-      <c r="E25" s="80" t="str">
+      <c r="E25" s="20" t="str">
         <v>In progress</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82" t="str">
+      <c r="A26" s="69" t="str">
         <v>Exploratory analysis and markdown: Area contrext (Housing, demographics, housing)</v>
       </c>
-      <c r="B26" s="82" t="str">
+      <c r="B26" s="69" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C26" s="80" t="str">
+      <c r="C26" s="20" t="str">
         <v>Kathleen</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="26">
         <v>45345</v>
       </c>
-      <c r="E26" s="80" t="str">
+      <c r="E26" s="20" t="str">
         <v>In progress</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82" t="str">
+      <c r="A27" s="69" t="str">
         <v>Exploratory analysis and markdown: Correlation Matrix &amp; maps</v>
       </c>
-      <c r="B27" s="82" t="str">
+      <c r="B27" s="69" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C27" s="80" t="str">
+      <c r="C27" s="20" t="str">
         <v>Yinan</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="26">
         <v>45345</v>
       </c>
-      <c r="E27" s="80" t="str">
+      <c r="E27" s="20" t="str">
         <v>In progress</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82" t="str">
+      <c r="A28" s="69" t="str">
         <v>Exploratory analysis and markdown: Correlation Matrix &amp; maps</v>
       </c>
-      <c r="B28" s="82" t="str">
+      <c r="B28" s="69" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C28" s="80" t="str">
+      <c r="C28" s="20" t="str">
         <v>Gingyi</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="26">
         <v>45345</v>
       </c>
-      <c r="E28" s="80" t="str">
+      <c r="E28" s="20" t="str">
         <v>In progress</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82" t="str">
+      <c r="A29" s="69" t="str">
         <v>Exploratory analysis and markdown: any additional maps and graphics</v>
       </c>
-      <c r="B29" s="82" t="str">
+      <c r="B29" s="69" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C29" s="80" t="str">
+      <c r="C29" s="20" t="str">
         <v>Everyone</v>
       </c>
-      <c r="D29" s="81">
+      <c r="D29" s="26">
         <v>45345</v>
       </c>
-      <c r="E29" s="80" t="str">
+      <c r="E29" s="20" t="str">
         <v>In progress</v>
       </c>
-      <c r="F29" s="82" t="str">
+      <c r="F29" s="69" t="str">
         <v>Discuss on 02/20/23</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="str">
+      <c r="A30" s="69" t="str">
         <v xml:space="preserve">Presentatiuon one Markdown - Exploratory Analysis </v>
       </c>
-      <c r="B30" s="82" t="str">
+      <c r="B30" s="69" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C30" s="80" t="str">
+      <c r="C30" s="20" t="str">
         <v>?</v>
       </c>
-      <c r="D30" s="81">
+      <c r="D30" s="26">
         <v>45345</v>
       </c>
-      <c r="E30" s="80" t="str">
+      <c r="E30" s="20" t="str">
         <v>In progress</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82" t="str">
+      <c r="A31" s="69" t="str">
         <v>Slides: Presentation 1</v>
       </c>
-      <c r="B31" s="82" t="str">
+      <c r="B31" s="69" t="str">
         <v>Phase 3: Exploratory analysis and Presentation 1</v>
       </c>
-      <c r="C31" s="80" t="str">
+      <c r="C31" s="20" t="str">
         <v>Alice</v>
       </c>
-      <c r="D31" s="81">
+      <c r="D31" s="26">
         <v>0</v>
       </c>
-      <c r="E31" s="80">
+      <c r="E31" s="20">
         <v>0</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="69">
         <v>0</v>
       </c>
     </row>
@@ -3472,102 +3435,102 @@
     <row r="33" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="41"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="7">
